--- a/uploads/Email.xlsx
+++ b/uploads/Email.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\python\Email_sender\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39CD0E67-3240-442C-97BF-20B43EF7EE99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95164548-E65C-456B-B0E6-2B53BA4D7BE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B3C31CCC-9026-4769-B474-AECE4DB04FD5}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Recipient</t>
   </si>
@@ -43,6 +43,15 @@
   </si>
   <si>
     <t>Wary</t>
+  </si>
+  <si>
+    <t>mohitkushwaha4508@gmail.com</t>
+  </si>
+  <si>
+    <t>New Subject</t>
+  </si>
+  <si>
+    <t>It is a new message</t>
   </si>
 </sst>
 </file>
@@ -405,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EEAC054-BBE6-43F2-B316-7269D18B87C3}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -440,9 +449,21 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{E653FB00-90C5-4C77-83E4-EDE3FA028839}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{259A4A87-ED24-4841-8BB9-495C66B5D7B9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
